--- a/data/Data3.xlsx
+++ b/data/Data3.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -29,6 +30,30 @@
   </si>
   <si>
     <t>Petal.Width</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
   <si>
     <t>Species</t>
@@ -392,13 +417,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,146 +439,318 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
       <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>147.5</v>
+      </c>
+      <c r="C3">
+        <v>6.383333333333333</v>
+      </c>
+      <c r="D3">
+        <v>3.033333333333334</v>
+      </c>
+      <c r="E3">
+        <v>5.266666666666667</v>
+      </c>
+      <c r="F3">
+        <v>2.133333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1.870828693386971</v>
+      </c>
+      <c r="C4">
+        <v>0.3125166662222459</v>
+      </c>
+      <c r="D4">
+        <v>0.3141125063837265</v>
+      </c>
+      <c r="E4">
+        <v>0.2503331114069146</v>
+      </c>
+      <c r="F4">
+        <v>0.2732520204255893</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
         <v>145</v>
       </c>
-      <c r="C2">
-        <v>6.7</v>
-      </c>
-      <c r="D2">
-        <v>3.3</v>
-      </c>
-      <c r="E2">
-        <v>5.7</v>
-      </c>
-      <c r="F2">
+      <c r="C5">
+        <v>5.9</v>
+      </c>
+      <c r="D5">
         <v>2.5</v>
       </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>146</v>
-      </c>
-      <c r="C3">
-        <v>6.7</v>
-      </c>
-      <c r="D3">
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>146.25</v>
+      </c>
+      <c r="C6">
+        <v>6.225</v>
+      </c>
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="E3">
-        <v>5.2</v>
-      </c>
-      <c r="F3">
-        <v>2.3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>147</v>
-      </c>
-      <c r="C4">
-        <v>6.3</v>
-      </c>
-      <c r="D4">
-        <v>2.5</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>1.9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>148</v>
-      </c>
-      <c r="C5">
-        <v>6.5</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>5.2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>149</v>
-      </c>
-      <c r="C6">
-        <v>6.2</v>
-      </c>
-      <c r="D6">
-        <v>3.4</v>
-      </c>
       <c r="E6">
-        <v>5.4</v>
+        <v>5.125</v>
       </c>
       <c r="F6">
-        <v>2.3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>5</v>
+        <v>1.925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>150</v>
+        <v>147.5</v>
       </c>
       <c r="C7">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7">
+        <v>5.2</v>
+      </c>
+      <c r="F7">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>148.75</v>
+      </c>
+      <c r="C8">
+        <v>6.65</v>
+      </c>
+      <c r="D8">
+        <v>3.225</v>
+      </c>
+      <c r="E8">
+        <v>5.350000000000001</v>
+      </c>
+      <c r="F8">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>150</v>
+      </c>
+      <c r="C9">
+        <v>6.7</v>
+      </c>
+      <c r="D9">
+        <v>3.4</v>
+      </c>
+      <c r="E9">
+        <v>5.7</v>
+      </c>
+      <c r="F9">
+        <v>2.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>145</v>
+      </c>
+      <c r="B2">
+        <v>6.7</v>
+      </c>
+      <c r="C2">
+        <v>3.3</v>
+      </c>
+      <c r="D2">
+        <v>5.7</v>
+      </c>
+      <c r="E2">
+        <v>2.5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>146</v>
+      </c>
+      <c r="B3">
+        <v>6.7</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>5.2</v>
+      </c>
+      <c r="E3">
+        <v>2.3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>147</v>
+      </c>
+      <c r="B4">
+        <v>6.3</v>
+      </c>
+      <c r="C4">
+        <v>2.5</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>1.9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>148</v>
+      </c>
+      <c r="B5">
+        <v>6.5</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>5.2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>149</v>
+      </c>
+      <c r="B6">
+        <v>6.2</v>
+      </c>
+      <c r="C6">
+        <v>3.4</v>
+      </c>
+      <c r="D6">
+        <v>5.4</v>
+      </c>
+      <c r="E6">
+        <v>2.3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>150</v>
+      </c>
+      <c r="B7">
+        <v>5.9</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
         <v>5.1</v>
       </c>
-      <c r="F7">
+      <c r="E7">
         <v>1.8</v>
       </c>
-      <c r="G7" t="s">
-        <v>6</v>
+      <c r="F7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
